--- a/src/main/resources/static/interfaceTemplate.xlsx
+++ b/src/main/resources/static/interfaceTemplate.xlsx
@@ -25,7 +25,7 @@
     <t>是否分页（TRUE / FALSE）</t>
   </si>
   <si>
-    <t>BaseResponse（TRUE / FALSE）</t>
+    <t>是否需要返回数据（TRUE / FALSE）</t>
   </si>
   <si>
     <t>queryPreSettleApplicationList</t>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/interfaceTemplate.xlsx
+++ b/src/main/resources/static/interfaceTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>接口名</t>
   </si>
@@ -28,86 +28,10 @@
     <t>是否需要返回数据（TRUE / FALSE）</t>
   </si>
   <si>
-    <t>queryPreSettleApplicationList</t>
+    <t>test</t>
   </si>
   <si>
-    <t>特殊结算单列表（省公司结算专员）</t>
-  </si>
-  <si>
-    <t>submitPreSettleApplication</t>
-  </si>
-  <si>
-    <t>提交特殊结算申请预估单</t>
-  </si>
-  <si>
-    <t>updatePreSettleApplication</t>
-  </si>
-  <si>
-    <t>修改特殊结算申请预估单</t>
-  </si>
-  <si>
-    <t>acquirePreSettleAndSettleApplication</t>
-  </si>
-  <si>
-    <t>获取特殊结算申请单详情</t>
-  </si>
-  <si>
-    <t>querySettleApplicationList</t>
-  </si>
-  <si>
-    <t>特殊结算单列表（销售经理）</t>
-  </si>
-  <si>
-    <t>confirmSettleApplication</t>
-  </si>
-  <si>
-    <t>确认特殊结算申请单</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SettleApplication</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特殊结算申请单</t>
-    </r>
-  </si>
-  <si>
-    <t>queryApplicationProcessInfo</t>
-  </si>
-  <si>
-    <t>查询特殊结算申请流程信息</t>
+    <t>测试接口</t>
   </si>
 </sst>
 </file>
@@ -115,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,23 +74,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,37 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -219,15 +149,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,29 +205,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -269,47 +216,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -327,31 +233,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,151 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,26 +436,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +464,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,6 +499,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,34 +532,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,152 +542,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,14 +695,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,7 +1024,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1163,102 +1064,46 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/src/main/resources/static/interfaceTemplate.xlsx
+++ b/src/main/resources/static/interfaceTemplate.xlsx
@@ -88,16 +88,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,6 +141,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -126,8 +186,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,77 +211,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,181 +239,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,71 +450,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -537,147 +472,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="$A3:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="33.3303571428571" customWidth="1"/>
     <col min="2" max="2" width="34.6696428571429" customWidth="1"/>
@@ -1063,48 +1063,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
